--- a/rtss-mexico/src/main/resources/agriculture/EH-2014/extracted-tables-ch-17.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/EH-2014/extracted-tables-ch-17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\EH-2014\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD3D422-C181-4B5F-9D38-9815A29AB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D05A9EE7-E28D-46B1-ACAE-54F5B2C1E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="69900" yWindow="915" windowWidth="20220" windowHeight="21360" activeTab="1" xr2:uid="{A4A59FF3-859B-43A8-B8FE-16219DB90E2B}"/>
+    <workbookView xWindow="66915" yWindow="4260" windowWidth="15870" windowHeight="16785" activeTab="1" xr2:uid="{A4A59FF3-859B-43A8-B8FE-16219DB90E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="28">
   <si>
     <t>Для финансовых и календарных годов:</t>
   </si>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>с 1909 по 1924 все сельскохозяйственные данные неточны из-за гражданской войны</t>
+  </si>
+  <si>
+    <t>урожай Maiz</t>
+  </si>
+  <si>
+    <t>урожай Trigo</t>
+  </si>
+  <si>
+    <t>% урожай Trigo</t>
+  </si>
+  <si>
+    <t>% урожай Maiz</t>
   </si>
 </sst>
 </file>
@@ -570,7 +582,7 @@
         <v>32550</v>
       </c>
       <c r="G7" s="10">
-        <f>G8-1</f>
+        <f t="shared" ref="G7:G19" si="0">G8-1</f>
         <v>1901</v>
       </c>
       <c r="H7" s="11">
@@ -596,7 +608,7 @@
         <v>42180</v>
       </c>
       <c r="G8" s="10">
-        <f>G9-1</f>
+        <f t="shared" si="0"/>
         <v>1902</v>
       </c>
       <c r="H8" s="11">
@@ -619,15 +631,15 @@
         <v>27298</v>
       </c>
       <c r="G9" s="10">
-        <f>G10-1</f>
+        <f t="shared" si="0"/>
         <v>1903</v>
       </c>
       <c r="H9" s="11">
-        <f t="shared" ref="H9:H18" si="0">(C8+C9)/2</f>
+        <f t="shared" ref="H9:H18" si="1">(C8+C9)/2</f>
         <v>8105</v>
       </c>
       <c r="I9" s="11">
-        <f t="shared" ref="I9:I18" si="1">(D8+D9)/2</f>
+        <f t="shared" ref="I9:I18" si="2">(D8+D9)/2</f>
         <v>34739</v>
       </c>
     </row>
@@ -642,15 +654,15 @@
         <v>5279</v>
       </c>
       <c r="G10" s="10">
-        <f>G11-1</f>
+        <f t="shared" si="0"/>
         <v>1904</v>
       </c>
       <c r="H10" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12348</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16288.5</v>
       </c>
     </row>
@@ -665,15 +677,15 @@
         <v>75275</v>
       </c>
       <c r="G11" s="10">
-        <f>G12-1</f>
+        <f t="shared" si="0"/>
         <v>1905</v>
       </c>
       <c r="H11" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24519</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40277</v>
       </c>
     </row>
@@ -688,15 +700,15 @@
         <v>62692</v>
       </c>
       <c r="G12" s="10">
-        <f>G13-1</f>
+        <f t="shared" si="0"/>
         <v>1906</v>
       </c>
       <c r="H12" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44882.5</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68983.5</v>
       </c>
     </row>
@@ -711,15 +723,15 @@
         <v>14467</v>
       </c>
       <c r="G13" s="10">
-        <f>G14-1</f>
+        <f t="shared" si="0"/>
         <v>1907</v>
       </c>
       <c r="H13" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>35305.5</v>
       </c>
       <c r="I13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38579.5</v>
       </c>
     </row>
@@ -734,15 +746,15 @@
         <v>64329</v>
       </c>
       <c r="G14" s="10">
-        <f>G15-1</f>
+        <f t="shared" si="0"/>
         <v>1908</v>
       </c>
       <c r="H14" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9785</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39398</v>
       </c>
     </row>
@@ -757,15 +769,15 @@
         <v>131751</v>
       </c>
       <c r="G15" s="6">
-        <f>G16-1</f>
+        <f t="shared" si="0"/>
         <v>1909</v>
       </c>
       <c r="H15" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>49780</v>
       </c>
       <c r="I15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98040</v>
       </c>
       <c r="K15" s="3" t="s">
@@ -783,15 +795,15 @@
         <v>21514</v>
       </c>
       <c r="G16" s="6">
-        <f>G17-1</f>
+        <f t="shared" si="0"/>
         <v>1910</v>
       </c>
       <c r="H16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>163826</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>76632.5</v>
       </c>
     </row>
@@ -806,15 +818,15 @@
         <v>57319</v>
       </c>
       <c r="G17" s="6">
-        <f>G18-1</f>
+        <f t="shared" si="0"/>
         <v>1911</v>
       </c>
       <c r="H17" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>134601.5</v>
       </c>
       <c r="I17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39416.5</v>
       </c>
     </row>
@@ -829,15 +841,15 @@
         <v>31014</v>
       </c>
       <c r="G18" s="6">
-        <f>G19-1</f>
+        <f t="shared" si="0"/>
         <v>1912</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36769</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44166.5</v>
       </c>
     </row>
@@ -852,7 +864,7 @@
         <v>9120</v>
       </c>
       <c r="G19" s="6">
-        <f>G20-1</f>
+        <f t="shared" si="0"/>
         <v>1913</v>
       </c>
       <c r="H19" s="8">
@@ -2120,15 +2132,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6B414-D327-48AB-9DC9-F942A6F65321}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="5" max="5" width="12.5234375" customWidth="1"/>
+    <col min="6" max="6" width="16.3671875" customWidth="1"/>
+    <col min="8" max="8" width="12.5234375" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2138,8 +2156,20 @@
       <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -2149,8 +2179,22 @@
       <c r="C2" s="12">
         <v>16275</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" s="12">
+        <v>2305433</v>
+      </c>
+      <c r="F2">
+        <f>100*B2/E2</f>
+        <v>0.53536580763787112</v>
+      </c>
+      <c r="H2" s="12">
+        <v>327159</v>
+      </c>
+      <c r="I2">
+        <f>100*C2/H2</f>
+        <v>4.9746453559278514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -2160,8 +2204,22 @@
       <c r="C3" s="12">
         <v>37365</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="12">
+        <v>2200762</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F9" si="0">100*B3/E3</f>
+        <v>0.64284552350504054</v>
+      </c>
+      <c r="H3" s="12">
+        <v>242271</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I9" si="1">100*C3/H3</f>
+        <v>15.422811644810976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -2171,8 +2229,22 @@
       <c r="C4" s="12">
         <v>34739</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" s="12">
+        <v>2241781</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.36154289825812602</v>
+      </c>
+      <c r="H4" s="12">
+        <v>322394</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>10.775324602815189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -2182,8 +2254,22 @@
       <c r="C5" s="12">
         <v>16288.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" s="12">
+        <v>2210999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.55848057823635378</v>
+      </c>
+      <c r="H5" s="12">
+        <v>264077</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>6.1680873381627332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -2193,8 +2279,22 @@
       <c r="C6" s="12">
         <v>40277</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" s="12">
+        <v>2134868</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.1485019214302712</v>
+      </c>
+      <c r="H6" s="12">
+        <v>302629</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>13.309035155256106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -2204,8 +2304,22 @@
       <c r="C7" s="12">
         <v>68983.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" s="12">
+        <v>2715653</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.652733246847075</v>
+      </c>
+      <c r="H7" s="12">
+        <v>359708</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>19.177638529029103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -2215,8 +2329,22 @@
       <c r="C8" s="12">
         <v>38579.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="12">
+        <v>2862000</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2335953878406709</v>
+      </c>
+      <c r="H8" s="12">
+        <v>312755</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>12.335374334543014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -2225,6 +2353,46 @@
       </c>
       <c r="C9" s="12">
         <v>39398</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2679132</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.36523023128386356</v>
+      </c>
+      <c r="H9" s="12">
+        <v>280000</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>14.070714285714285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" s="12">
+        <f>AVERAGE(B2:B9)</f>
+        <v>20179.375</v>
+      </c>
+      <c r="C11" s="12">
+        <f>AVERAGE(C2:C9)</f>
+        <v>36488.1875</v>
+      </c>
+      <c r="E11" s="12">
+        <f>AVERAGE(E2:E9)</f>
+        <v>2418828.5</v>
+      </c>
+      <c r="F11">
+        <f>AVERAGE(F2:F9)</f>
+        <v>0.81228694937990897</v>
+      </c>
+      <c r="H11" s="12">
+        <f>AVERAGE(H2:H9)</f>
+        <v>301374.125</v>
+      </c>
+      <c r="I11">
+        <f>AVERAGE(I2:I9)</f>
+        <v>12.029203905782408</v>
       </c>
     </row>
   </sheetData>
